--- a/TPV_Source/Testcode/test1.xlsx
+++ b/TPV_Source/Testcode/test1.xlsx
@@ -25,7 +25,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Spindel</t>
+  </si>
+  <si>
+    <t>Spindel Oljetank</t>
+  </si>
+  <si>
+    <t>Hydraulisk Enhet</t>
+  </si>
+  <si>
+    <t>Kjølevannsystem</t>
+  </si>
+  <si>
+    <t>Maskindeksling &amp; ATC</t>
+  </si>
+  <si>
+    <t>Roterende Akser</t>
+  </si>
+  <si>
+    <t>Kabinett Filter</t>
+  </si>
+  <si>
+    <t>Verktøymagasin</t>
+  </si>
+  <si>
+    <t>Spontransportør</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,14 +387,44 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>

--- a/TPV_Source/Testcode/test1.xlsx
+++ b/TPV_Source/Testcode/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,54 @@
     <sheet name="October" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="November" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="December" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="January1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="February1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="March1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="April1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="May1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="June1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="July1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="August1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="September1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="October1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="November1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="December1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="January2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="February2" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="March2" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="April2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="May2" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="June2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="July2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="August2" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="September2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="October2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="November2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="December2" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="January3" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="February3" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="March3" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="April3" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="May3" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="June3" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="July3" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="August3" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="September3" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="October3" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="November3" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="December3" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="January4" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="February4" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="March4" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="April4" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="May4" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="June4" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="July4" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="August4" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="September4" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="October4" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="November4" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="December4" sheetId="60" state="visible" r:id="rId60"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Spindel</t>
   </si>
@@ -52,6 +100,9 @@
   </si>
   <si>
     <t>Spontransportør</t>
+  </si>
+  <si>
+    <t>22.07.2017, Sat</t>
   </si>
 </sst>
 </file>
@@ -92,7 +143,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -387,13 +438,1051 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="13.85546875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="7.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="20.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="15.42578125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
@@ -424,173 +1513,101 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -603,7 +1620,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -621,7 +1638,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
